--- a/var_nmap_output_parser.xlsx
+++ b/var_nmap_output_parser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/cyber-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCDBD9A-4F80-9D4F-B93D-62C7496AB104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA87F1A-54E3-6C41-9696-865805F20DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="18980" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nmap Vulns" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="158">
   <si>
     <t>IP</t>
   </si>
@@ -43,12 +43,12 @@
     <t>172.16.1.2</t>
   </si>
   <si>
+    <t>172.16.10.225</t>
+  </si>
+  <si>
     <t>172.16.10.39</t>
   </si>
   <si>
-    <t>172.16.10.225</t>
-  </si>
-  <si>
     <t>172.16.1.191</t>
   </si>
   <si>
@@ -76,184 +76,187 @@
     <t>ssh</t>
   </si>
   <si>
+    <t>CVE-2020-25681</t>
+  </si>
+  <si>
     <t>CVE-2020-25682</t>
   </si>
   <si>
-    <t>CVE-2020-25681</t>
+    <t>SSV:96623</t>
+  </si>
+  <si>
+    <t>EDB-ID:42946</t>
+  </si>
+  <si>
+    <t>CVE-2017-14496</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-28727</t>
   </si>
   <si>
     <t>EXPLOITPACK:708148DF89AFEA44750A9B84E292A6B9</t>
   </si>
   <si>
-    <t>EDB-ID:42946</t>
-  </si>
-  <si>
-    <t>SSV:96623</t>
-  </si>
-  <si>
-    <t>CVE-2017-14496</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28727</t>
+    <t>EDB-ID:42942</t>
+  </si>
+  <si>
+    <t>EDB-ID:42943</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:572F56450B83EECCA41D07EF1B33B48B</t>
+  </si>
+  <si>
+    <t>EDB-ID:42941</t>
   </si>
   <si>
     <t>EXPLOITPACK:E661AED6AF5BCC1565D1CB0F9878E40B</t>
   </si>
   <si>
+    <t>SSV:96618</t>
+  </si>
+  <si>
+    <t>SSV:96619</t>
+  </si>
+  <si>
+    <t>SSV:96620</t>
+  </si>
+  <si>
+    <t>CVE-2017-14493</t>
+  </si>
+  <si>
+    <t>CVE-2017-14492</t>
+  </si>
+  <si>
+    <t>PACKETSTORM:171631</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-28724</t>
+  </si>
+  <si>
     <t>EXPLOITPACK:95340EB39AF331E01096F2B1CF7F1DE2</t>
   </si>
   <si>
+    <t>CVE-2017-14491</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-28720</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-38427</t>
+  </si>
+  <si>
+    <t>5C1BB960-90C1-5EBF-9BEF-F58BFFDFEED9</t>
+  </si>
+  <si>
+    <t>CNVD-2021-102386</t>
+  </si>
+  <si>
+    <t>CNVD-2022-03225</t>
+  </si>
+  <si>
+    <t>CNVD-2022-73123</t>
+  </si>
+  <si>
+    <t>CVE-2017-3167</t>
+  </si>
+  <si>
+    <t>CVE-2017-7679</t>
+  </si>
+  <si>
+    <t>CVE-2021-26691</t>
+  </si>
+  <si>
+    <t>CVE-2021-39275</t>
+  </si>
+  <si>
+    <t>CVE-2021-44790</t>
+  </si>
+  <si>
     <t>CVE-2022-22720</t>
   </si>
   <si>
-    <t>CVE-2021-44790</t>
-  </si>
-  <si>
-    <t>CVE-2021-39275</t>
-  </si>
-  <si>
-    <t>CVE-2017-7679</t>
-  </si>
-  <si>
-    <t>CVE-2017-3167</t>
-  </si>
-  <si>
-    <t>CNVD-2022-73123</t>
-  </si>
-  <si>
-    <t>CNVD-2022-03225</t>
-  </si>
-  <si>
-    <t>CNVD-2021-102386</t>
-  </si>
-  <si>
-    <t>5C1BB960-90C1-5EBF-9BEF-F58BFFDFEED9</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-38427</t>
+    <t>CVE-2022-23943</t>
   </si>
   <si>
     <t>CVE-2022-31813</t>
   </si>
   <si>
-    <t>SSV:96620</t>
-  </si>
-  <si>
-    <t>SSV:96619</t>
-  </si>
-  <si>
-    <t>SSV:96618</t>
-  </si>
-  <si>
-    <t>EDB-ID:42943</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:572F56450B83EECCA41D07EF1B33B48B</t>
-  </si>
-  <si>
-    <t>CVE-2022-23943</t>
-  </si>
-  <si>
-    <t>CVE-2021-26691</t>
-  </si>
-  <si>
     <t>CVE-2023-25690</t>
   </si>
   <si>
+    <t>1337DAY-ID-28723</t>
+  </si>
+  <si>
     <t>EDB-ID:51193</t>
   </si>
   <si>
-    <t>PACKETSTORM:171631</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28720</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28723</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28724</t>
-  </si>
-  <si>
-    <t>CVE-2017-14491</t>
-  </si>
-  <si>
-    <t>CVE-2017-14492</t>
-  </si>
-  <si>
-    <t>CVE-2017-14493</t>
-  </si>
-  <si>
-    <t>EDB-ID:42941</t>
-  </si>
-  <si>
-    <t>EDB-ID:42942</t>
-  </si>
-  <si>
     <t>CVE-2020-25683</t>
   </si>
   <si>
     <t>CVE-2020-25687</t>
   </si>
   <si>
+    <t>CVE-2017-15715</t>
+  </si>
+  <si>
     <t>0095E929-7573-5E4A-A7FA-F6598A35E8DE</t>
   </si>
   <si>
+    <t>1337DAY-ID-22451</t>
+  </si>
+  <si>
+    <t>4373C92A-2755-5538-9C91-0469C995AA9B</t>
+  </si>
+  <si>
+    <t>4810E2D9-AC5F-5B08-BFB3-DDAFA2F63332</t>
+  </si>
+  <si>
+    <t>8AFB43C5-ABD4-52AD-BB19-24D7884FF2A2</t>
+  </si>
+  <si>
+    <t>CNVD-2022-03224</t>
+  </si>
+  <si>
+    <t>CVE-2014-0226</t>
+  </si>
+  <si>
+    <t>CVE-2016-5387</t>
+  </si>
+  <si>
+    <t>CVE-2018-1312</t>
+  </si>
+  <si>
+    <t>CVE-2020-35452</t>
+  </si>
+  <si>
+    <t>CVE-2021-40438</t>
+  </si>
+  <si>
     <t>PACKETSTORM:127546</t>
   </si>
   <si>
     <t>FDF3DFA1-ED74-5EE2-BF5C-BA752CA34AE8</t>
   </si>
   <si>
-    <t>CVE-2021-40438</t>
-  </si>
-  <si>
-    <t>CVE-2020-35452</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-22451</t>
-  </si>
-  <si>
-    <t>CVE-2018-1312</t>
-  </si>
-  <si>
-    <t>4810E2D9-AC5F-5B08-BFB3-DDAFA2F63332</t>
-  </si>
-  <si>
-    <t>8AFB43C5-ABD4-52AD-BB19-24D7884FF2A2</t>
-  </si>
-  <si>
-    <t>CNVD-2022-03224</t>
-  </si>
-  <si>
-    <t>CVE-2014-0226</t>
-  </si>
-  <si>
-    <t>4373C92A-2755-5538-9C91-0469C995AA9B</t>
-  </si>
-  <si>
-    <t>CVE-2016-5387</t>
-  </si>
-  <si>
-    <t>CVE-2017-15715</t>
+    <t>CVE-2022-28615</t>
   </si>
   <si>
     <t>CVE-2017-9788</t>
   </si>
   <si>
-    <t>CVE-2022-28615</t>
-  </si>
-  <si>
     <t>CVE-2019-0217</t>
   </si>
   <si>
+    <t>EDB-ID:46516</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:98FE96309F9524B8C84C508837551A19</t>
+  </si>
+  <si>
     <t>EXPLOITPACK:5330EA02EBDE345BFC9D6DDDD97F9E97</t>
   </si>
   <si>
-    <t>EXPLOITPACK:98FE96309F9524B8C84C508837551A19</t>
-  </si>
-  <si>
-    <t>EDB-ID:46516</t>
+    <t>1337DAY-ID-32009</t>
   </si>
   <si>
     <t>EDB-ID:46193</t>
@@ -265,342 +268,204 @@
     <t>1337DAY-ID-32328</t>
   </si>
   <si>
-    <t>1337DAY-ID-32009</t>
+    <t>CVE-2019-10098</t>
+  </si>
+  <si>
+    <t>CVE-2020-1927</t>
+  </si>
+  <si>
+    <t>CVE-2022-22721</t>
   </si>
   <si>
     <t>1337DAY-ID-33577</t>
   </si>
   <si>
-    <t>CVE-2019-10098</t>
-  </si>
-  <si>
-    <t>CVE-2020-1927</t>
-  </si>
-  <si>
-    <t>CVE-2022-22721</t>
-  </si>
-  <si>
     <t>CVE-2022-36760</t>
   </si>
   <si>
+    <t>SSV:96622</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:C0456C7DF1625677A211CB9799B79F9A</t>
+  </si>
+  <si>
+    <t>CVE-2016-10708</t>
+  </si>
+  <si>
+    <t>EDB-ID:42945</t>
+  </si>
+  <si>
+    <t>CVE-2023-28450</t>
+  </si>
+  <si>
+    <t>CVE-2022-0934</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-31730</t>
+  </si>
+  <si>
+    <t>CVE-2019-14513</t>
+  </si>
+  <si>
+    <t>CVE-2017-15107</t>
+  </si>
+  <si>
+    <t>CVE-2017-14495</t>
+  </si>
+  <si>
+    <t>CVE-2017-15906</t>
+  </si>
+  <si>
+    <t>SSV:96537</t>
+  </si>
+  <si>
+    <t>CVE-2022-30556</t>
+  </si>
+  <si>
+    <t>CVE-2021-26690</t>
+  </si>
+  <si>
+    <t>CVE-2021-34798</t>
+  </si>
+  <si>
+    <t>CVE-2022-22719</t>
+  </si>
+  <si>
+    <t>CVE-2022-26377</t>
+  </si>
+  <si>
+    <t>CVE-2022-28614</t>
+  </si>
+  <si>
+    <t>CVE-2022-29404</t>
+  </si>
+  <si>
+    <t>CVE-2022-37436</t>
+  </si>
+  <si>
+    <t>SSV:62058</t>
+  </si>
+  <si>
+    <t>EDB-ID:40961</t>
+  </si>
+  <si>
+    <t>EDB-ID:42745</t>
+  </si>
+  <si>
+    <t>79068BEF-A572-5A8A-88D0-177524BDAAFE</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:C8C256BE0BFF5FE1C0405CB0AA9C075D</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:DAED9B9E8D259B28BF72FC7FDC4755A7</t>
+  </si>
+  <si>
+    <t>SSV:61874</t>
+  </si>
+  <si>
+    <t>CVE-2017-13704</t>
+  </si>
+  <si>
+    <t>EDB-ID:45939</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-28726</t>
+  </si>
+  <si>
+    <t>CVE-2018-15473</t>
+  </si>
+  <si>
+    <t>CVE-2018-15919</t>
+  </si>
+  <si>
+    <t>EDB-ID:45233</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:EBDBC5685E3276D648B4D14B75563283</t>
+  </si>
+  <si>
+    <t>EXPLOITPACK:F957D7E8A0CC1E23C3C649B764E13FB0</t>
+  </si>
+  <si>
+    <t>PACKETSTORM:150621</t>
+  </si>
+  <si>
+    <t>SSH_ENUM</t>
+  </si>
+  <si>
+    <t>CVE-2019-17567</t>
+  </si>
+  <si>
+    <t>CVE-2020-1934</t>
+  </si>
+  <si>
+    <t>CNVD-2022-53584</t>
+  </si>
+  <si>
+    <t>1337DAY-ID-26574</t>
+  </si>
+  <si>
+    <t>CVE-2016-2161</t>
+  </si>
+  <si>
+    <t>CVE-2014-0098</t>
+  </si>
+  <si>
+    <t>CVE-2014-0231</t>
+  </si>
+  <si>
+    <t>CVE-2014-3581</t>
+  </si>
+  <si>
+    <t>CVE-2015-0228</t>
+  </si>
+  <si>
+    <t>CVE-2015-3183</t>
+  </si>
+  <si>
+    <t>CVE-2016-0736</t>
+  </si>
+  <si>
+    <t>CVE-2016-8743</t>
+  </si>
+  <si>
+    <t>CVE-2013-5704</t>
+  </si>
+  <si>
+    <t>CVE-2017-15710</t>
+  </si>
+  <si>
+    <t>CVE-2017-9798</t>
+  </si>
+  <si>
+    <t>CVE-2018-1303</t>
+  </si>
+  <si>
+    <t>CVE-2018-17199</t>
+  </si>
+  <si>
+    <t>CVE-2019-0220</t>
+  </si>
+  <si>
     <t>CVE-2013-6438</t>
   </si>
   <si>
-    <t>CVE-2013-5704</t>
-  </si>
-  <si>
     <t>CVE-2006-20001</t>
   </si>
   <si>
-    <t>CVE-2022-22719</t>
-  </si>
-  <si>
-    <t>CVE-2014-0231</t>
-  </si>
-  <si>
     <t>CNVD-2022-73122</t>
   </si>
   <si>
-    <t>CNVD-2022-53584</t>
+    <t>1337DAY-ID-28573</t>
+  </si>
+  <si>
+    <t>CNVD-2022-03223</t>
   </si>
   <si>
     <t>CNVD-2022-53582</t>
   </si>
   <si>
-    <t>CNVD-2022-03223</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28573</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-26574</t>
-  </si>
-  <si>
-    <t>CVE-2016-10708</t>
-  </si>
-  <si>
-    <t>CVE-2014-0098</t>
-  </si>
-  <si>
-    <t>CVE-2016-0736</t>
-  </si>
-  <si>
-    <t>CVE-2014-3581</t>
-  </si>
-  <si>
-    <t>CVE-2015-0228</t>
-  </si>
-  <si>
-    <t>CVE-2022-26377</t>
-  </si>
-  <si>
-    <t>CVE-2017-13704</t>
-  </si>
-  <si>
-    <t>CVE-2021-34798</t>
-  </si>
-  <si>
-    <t>CVE-2021-26690</t>
-  </si>
-  <si>
-    <t>CVE-2020-1934</t>
-  </si>
-  <si>
-    <t>CVE-2019-17567</t>
-  </si>
-  <si>
-    <t>CVE-2019-0220</t>
-  </si>
-  <si>
-    <t>CVE-2018-17199</t>
-  </si>
-  <si>
-    <t>CVE-2018-1303</t>
-  </si>
-  <si>
-    <t>CVE-2017-9798</t>
-  </si>
-  <si>
-    <t>CVE-2017-15710</t>
-  </si>
-  <si>
-    <t>CVE-2016-8743</t>
-  </si>
-  <si>
-    <t>CVE-2016-2161</t>
-  </si>
-  <si>
-    <t>CVE-2018-15473</t>
-  </si>
-  <si>
-    <t>CVE-2015-3183</t>
-  </si>
-  <si>
-    <t>CVE-2017-15906</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:F957D7E8A0CC1E23C3C649B764E13FB0</t>
-  </si>
-  <si>
-    <t>CVE-2018-15919</t>
-  </si>
-  <si>
-    <t>EDB-ID:45233</t>
-  </si>
-  <si>
-    <t>SSV:96622</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:C0456C7DF1625677A211CB9799B79F9A</t>
-  </si>
-  <si>
-    <t>EDB-ID:42945</t>
-  </si>
-  <si>
-    <t>CVE-2023-28450</t>
-  </si>
-  <si>
-    <t>CVE-2022-0934</t>
-  </si>
-  <si>
-    <t>CVE-2019-14513</t>
-  </si>
-  <si>
-    <t>CVE-2017-15107</t>
-  </si>
-  <si>
-    <t>SSV:96537</t>
-  </si>
-  <si>
-    <t>SSV:62058</t>
-  </si>
-  <si>
-    <t>SSV:61874</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:DAED9B9E8D259B28BF72FC7FDC4755A7</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:C8C256BE0BFF5FE1C0405CB0AA9C075D</t>
-  </si>
-  <si>
-    <t>EDB-ID:42745</t>
-  </si>
-  <si>
-    <t>EDB-ID:40961</t>
-  </si>
-  <si>
-    <t>CVE-2022-37436</t>
-  </si>
-  <si>
-    <t>CVE-2022-30556</t>
-  </si>
-  <si>
-    <t>CVE-2017-14495</t>
-  </si>
-  <si>
-    <t>EDB-ID:45939</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:EBDBC5685E3276D648B4D14B75563283</t>
-  </si>
-  <si>
-    <t>SSH_ENUM</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:150621</t>
-  </si>
-  <si>
-    <t>CVE-2022-29404</t>
-  </si>
-  <si>
-    <t>CVE-2022-28614</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-31730</t>
-  </si>
-  <si>
-    <t>79068BEF-A572-5A8A-88D0-177524BDAAFE</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28726</t>
-  </si>
-  <si>
-    <t>CVE-2021-41617</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-33575</t>
-  </si>
-  <si>
-    <t>CVE-2021-3448</t>
-  </si>
-  <si>
-    <t>CVE-2020-25686</t>
-  </si>
-  <si>
-    <t>CVE-2020-25685</t>
-  </si>
-  <si>
-    <t>CVE-2020-25684</t>
-  </si>
-  <si>
-    <t>CVE-2019-14834</t>
-  </si>
-  <si>
-    <t>CVE-2017-14494</t>
-  </si>
-  <si>
-    <t>CBF3EF2D-3A5B-5110-A374-4A5ADE9AC91A</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-28725</t>
-  </si>
-  <si>
-    <t>EXPLOITPACK:22D470FAFA79A3DB978CC3F8766CC759</t>
-  </si>
-  <si>
-    <t>CVE-2020-14145</t>
-  </si>
-  <si>
-    <t>EDB-ID:42944</t>
-  </si>
-  <si>
-    <t>CVE-2014-8109</t>
-  </si>
-  <si>
-    <t>OSV:CVE-2020-25685</t>
-  </si>
-  <si>
-    <t>CVE-2015-3185</t>
-  </si>
-  <si>
-    <t>CVE-2018-1301</t>
-  </si>
-  <si>
-    <t>CVE-2018-1302</t>
-  </si>
-  <si>
-    <t>CVE-2019-10092</t>
-  </si>
-  <si>
-    <t>CVE-2020-11985</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:127563</t>
-  </si>
-  <si>
-    <t>SSV:87152</t>
-  </si>
-  <si>
-    <t>SSV:96621</t>
-  </si>
-  <si>
-    <t>CVE-2016-4975</t>
-  </si>
-  <si>
-    <t>CVE-2014-0118</t>
-  </si>
-  <si>
-    <t>CVE-2014-0117</t>
-  </si>
-  <si>
-    <t>CVE-2013-4352</t>
-  </si>
-  <si>
-    <t>CVE-2013-1896</t>
-  </si>
-  <si>
-    <t>4013EC74-B3C1-5D95-938A-54197A58586D</t>
-  </si>
-  <si>
-    <t>CVE-2019-6109</t>
-  </si>
-  <si>
-    <t>CVE-2019-6110</t>
-  </si>
-  <si>
-    <t>CVE-2018-1283</t>
-  </si>
-  <si>
-    <t>CVE-2016-8612</t>
-  </si>
-  <si>
-    <t>CVE-2018-20685</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:140265</t>
-  </si>
-  <si>
-    <t>1337DAY-ID-30937</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:151227</t>
-  </si>
-  <si>
-    <t>MSF:AUXILIARY-SCANNER-SSH-SSH_ENUMUSERS-</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144480</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144479</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144473</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144471</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144468</t>
-  </si>
-  <si>
-    <t>PACKETSTORM:144462</t>
-  </si>
-  <si>
-    <t>OSV:CVE-2021-3448</t>
-  </si>
-  <si>
     <t>8.3</t>
   </si>
   <si>
@@ -629,27 +494,6 @@
   </si>
   <si>
     <t>5.0</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -1017,15 +861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F349"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1105,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,167 +1067,167 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,67 +1247,67 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1482,55 +1324,55 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1542,50 +1384,50 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1602,10 +1444,10 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1622,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1642,15 +1484,15 @@
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1662,15 +1504,15 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1682,15 +1524,15 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1702,15 +1544,15 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1722,15 +1564,15 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1742,15 +1584,15 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -1762,30 +1604,30 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1802,10 +1644,10 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1822,10 +1664,10 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,10 +1704,10 @@
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1882,10 +1724,10 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1902,10 +1744,10 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1922,175 +1764,175 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -2102,10 +1944,10 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2122,10 +1964,10 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2145,7 +1987,7 @@
         <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2165,7 +2007,7 @@
         <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2185,12 +2027,12 @@
         <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -2205,12 +2047,12 @@
         <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -2225,12 +2067,12 @@
         <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -2245,12 +2087,12 @@
         <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -2265,12 +2107,12 @@
         <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -2285,12 +2127,12 @@
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -2305,12 +2147,12 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -2325,12 +2167,12 @@
         <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -2345,12 +2187,12 @@
         <v>66</v>
       </c>
       <c r="F66" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -2362,15 +2204,15 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -2382,15 +2224,15 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -2402,10 +2244,10 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,15 +2264,15 @@
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -2445,7 +2287,7 @@
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2462,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,15 +2324,15 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -2502,15 +2344,15 @@
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -2522,15 +2364,15 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -2542,15 +2384,15 @@
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -2562,15 +2404,15 @@
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -2582,15 +2424,15 @@
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -2602,15 +2444,15 @@
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F79" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -2622,15 +2464,15 @@
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -2642,15 +2484,15 @@
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F81" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -2662,15 +2504,15 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -2682,15 +2524,15 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -2702,15 +2544,15 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -2722,15 +2564,15 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -2745,12 +2587,12 @@
         <v>72</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -2762,10 +2604,10 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2785,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,15 +2644,15 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -2825,12 +2667,12 @@
         <v>74</v>
       </c>
       <c r="F90" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -2845,12 +2687,12 @@
         <v>74</v>
       </c>
       <c r="F91" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -2865,7 +2707,7 @@
         <v>75</v>
       </c>
       <c r="F92" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,12 +2727,12 @@
         <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -2905,12 +2747,12 @@
         <v>77</v>
       </c>
       <c r="F94" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -2925,12 +2767,12 @@
         <v>78</v>
       </c>
       <c r="F95" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -2945,12 +2787,12 @@
         <v>79</v>
       </c>
       <c r="F96" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -2965,12 +2807,12 @@
         <v>80</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -2985,12 +2827,12 @@
         <v>81</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -3005,12 +2847,12 @@
         <v>81</v>
       </c>
       <c r="F99" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -3022,15 +2864,15 @@
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -3042,15 +2884,15 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -3062,15 +2904,15 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -3082,15 +2924,15 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -3105,7 +2947,7 @@
         <v>75</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3122,35 +2964,35 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -3162,75 +3004,75 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F110" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -3245,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3262,30 +3104,30 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3302,10 +3144,10 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F114" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3322,10 +3164,10 @@
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F115" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3342,10 +3184,10 @@
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3362,15 +3204,15 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F117" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -3382,35 +3224,35 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F118" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F119" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -3422,10 +3264,10 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F120" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3442,10 +3284,10 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3462,10 +3304,10 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F122" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3482,10 +3324,10 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3502,10 +3344,10 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F124" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3516,16 +3358,16 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F125" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3536,21 +3378,21 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F126" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -3562,10 +3404,10 @@
         <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F127" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3585,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="F128" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3605,47 +3447,47 @@
         <v>86</v>
       </c>
       <c r="F129" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
         <v>87</v>
       </c>
       <c r="F130" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131" t="s">
         <v>88</v>
       </c>
       <c r="F131" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3656,76 +3498,76 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
         <v>89</v>
       </c>
       <c r="F132" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
         <v>90</v>
       </c>
       <c r="F133" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
         <v>91</v>
       </c>
       <c r="F134" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
         <v>92</v>
       </c>
       <c r="F135" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,116 +3578,116 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
         <v>93</v>
       </c>
       <c r="F136" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
         <v>94</v>
       </c>
       <c r="F137" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>95</v>
       </c>
       <c r="F138" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
         <v>96</v>
       </c>
       <c r="F139" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E140" t="s">
         <v>97</v>
       </c>
       <c r="F140" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
         <v>98</v>
       </c>
       <c r="F141" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3865,7 +3707,7 @@
         <v>99</v>
       </c>
       <c r="F142" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -3885,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="F143" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3905,7 +3747,7 @@
         <v>101</v>
       </c>
       <c r="F144" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -3925,7 +3767,7 @@
         <v>102</v>
       </c>
       <c r="F145" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,27 +3787,27 @@
         <v>103</v>
       </c>
       <c r="F146" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
         <v>104</v>
       </c>
       <c r="F147" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -3985,7 +3827,7 @@
         <v>105</v>
       </c>
       <c r="F148" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4005,7 +3847,7 @@
         <v>106</v>
       </c>
       <c r="F149" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4025,7 +3867,7 @@
         <v>107</v>
       </c>
       <c r="F150" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4045,7 +3887,7 @@
         <v>108</v>
       </c>
       <c r="F151" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4065,27 +3907,27 @@
         <v>109</v>
       </c>
       <c r="F152" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
         <v>110</v>
       </c>
       <c r="F153" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4105,7 +3947,7 @@
         <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4125,7 +3967,7 @@
         <v>112</v>
       </c>
       <c r="F155" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,27 +3987,27 @@
         <v>113</v>
       </c>
       <c r="F156" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
         <v>114</v>
       </c>
       <c r="F157" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4176,36 +4018,36 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E158" t="s">
         <v>115</v>
       </c>
       <c r="F158" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E159" t="s">
         <v>116</v>
       </c>
       <c r="F159" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4216,21 +4058,21 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F160" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -4242,15 +4084,15 @@
         <v>17</v>
       </c>
       <c r="E161" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F161" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -4262,15 +4104,15 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F162" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -4282,15 +4124,15 @@
         <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F163" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -4302,355 +4144,355 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F164" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F165" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F166" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F167" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E168" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F168" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F169" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F170" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F171" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F172" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="F173" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E174" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F174" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E175" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F175" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E176" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F176" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F177" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E178" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F178" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F179" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F180" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E181" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F181" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -4662,15 +4504,15 @@
         <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F182" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -4682,15 +4524,15 @@
         <v>17</v>
       </c>
       <c r="E183" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F183" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -4702,15 +4544,15 @@
         <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F184" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -4722,35 +4564,35 @@
         <v>17</v>
       </c>
       <c r="E185" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F185" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F186" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -4762,15 +4604,15 @@
         <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F187" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -4782,15 +4624,15 @@
         <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F188" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -4802,35 +4644,35 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F189" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F190" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -4842,50 +4684,50 @@
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F191" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F192" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F193" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,10 +4744,10 @@
         <v>16</v>
       </c>
       <c r="E194" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F194" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4922,10 +4764,10 @@
         <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F195" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4942,10 +4784,10 @@
         <v>16</v>
       </c>
       <c r="E196" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F196" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4956,21 +4798,21 @@
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E197" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F197" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -4982,15 +4824,15 @@
         <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -5002,15 +4844,15 @@
         <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F199" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -5022,170 +4864,170 @@
         <v>16</v>
       </c>
       <c r="E200" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="F200" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F201" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E202" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F202" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F203" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F204" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E205" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F205" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E206" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F206" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F207" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E208" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F208" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,41 +5038,41 @@
         <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F209" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F210" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -5242,15 +5084,15 @@
         <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F211" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -5262,10 +5104,10 @@
         <v>17</v>
       </c>
       <c r="E212" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="F212" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,21 +5118,21 @@
         <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F213" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -5302,15 +5144,15 @@
         <v>17</v>
       </c>
       <c r="E214" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F214" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -5322,15 +5164,15 @@
         <v>17</v>
       </c>
       <c r="E215" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F215" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -5342,15 +5184,15 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F216" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -5362,15 +5204,15 @@
         <v>17</v>
       </c>
       <c r="E217" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F217" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -5382,10 +5224,10 @@
         <v>17</v>
       </c>
       <c r="E218" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F218" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5396,21 +5238,21 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E219" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F219" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -5422,155 +5264,155 @@
         <v>17</v>
       </c>
       <c r="E220" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F220" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E221" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F221" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E222" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="F222" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E223" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="F223" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E224" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F224" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E225" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F225" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E226" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F226" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E227" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F227" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -5582,10 +5424,10 @@
         <v>16</v>
       </c>
       <c r="E228" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F228" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5602,10 +5444,10 @@
         <v>16</v>
       </c>
       <c r="E229" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F229" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5622,10 +5464,10 @@
         <v>16</v>
       </c>
       <c r="E230" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="F230" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5642,10 +5484,10 @@
         <v>16</v>
       </c>
       <c r="E231" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F231" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5662,10 +5504,10 @@
         <v>16</v>
       </c>
       <c r="E232" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F232" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5682,10 +5524,10 @@
         <v>16</v>
       </c>
       <c r="E233" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F233" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5702,10 +5544,10 @@
         <v>16</v>
       </c>
       <c r="E234" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F234" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5722,10 +5564,10 @@
         <v>16</v>
       </c>
       <c r="E235" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F235" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5742,10 +5584,10 @@
         <v>16</v>
       </c>
       <c r="E236" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="F236" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5762,15 +5604,15 @@
         <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F237" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -5782,10 +5624,10 @@
         <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F238" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5802,15 +5644,15 @@
         <v>16</v>
       </c>
       <c r="E239" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="F239" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -5822,35 +5664,35 @@
         <v>16</v>
       </c>
       <c r="E240" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F240" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E241" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F241" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -5862,15 +5704,15 @@
         <v>16</v>
       </c>
       <c r="E242" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F242" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -5882,15 +5724,15 @@
         <v>16</v>
       </c>
       <c r="E243" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F243" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -5902,10 +5744,10 @@
         <v>16</v>
       </c>
       <c r="E244" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F244" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -5916,16 +5758,16 @@
         <v>11</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E245" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F245" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,10 +5784,10 @@
         <v>16</v>
       </c>
       <c r="E246" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F246" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,10 +5804,10 @@
         <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F247" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -5982,10 +5824,10 @@
         <v>16</v>
       </c>
       <c r="E248" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F248" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -6002,10 +5844,10 @@
         <v>16</v>
       </c>
       <c r="E249" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F249" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -6022,10 +5864,10 @@
         <v>16</v>
       </c>
       <c r="E250" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F250" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,10 +5884,10 @@
         <v>16</v>
       </c>
       <c r="E251" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F251" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,10 +5904,10 @@
         <v>16</v>
       </c>
       <c r="E252" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F252" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -6082,10 +5924,10 @@
         <v>16</v>
       </c>
       <c r="E253" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F253" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -6102,10 +5944,10 @@
         <v>16</v>
       </c>
       <c r="E254" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F254" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6122,10 +5964,10 @@
         <v>16</v>
       </c>
       <c r="E255" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="F255" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6142,10 +5984,10 @@
         <v>16</v>
       </c>
       <c r="E256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F256" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6165,7 +6007,7 @@
         <v>100</v>
       </c>
       <c r="F257" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6182,10 +6024,10 @@
         <v>16</v>
       </c>
       <c r="E258" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F258" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6202,10 +6044,10 @@
         <v>16</v>
       </c>
       <c r="E259" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F259" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6222,10 +6064,10 @@
         <v>16</v>
       </c>
       <c r="E260" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F260" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6242,15 +6084,15 @@
         <v>16</v>
       </c>
       <c r="E261" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F261" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -6262,1750 +6104,10 @@
         <v>17</v>
       </c>
       <c r="E262" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F262" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>10</v>
-      </c>
-      <c r="B263" t="s">
-        <v>11</v>
-      </c>
-      <c r="C263" t="s">
-        <v>14</v>
-      </c>
-      <c r="D263" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" t="s">
-        <v>148</v>
-      </c>
-      <c r="F263" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>8</v>
-      </c>
-      <c r="B264" t="s">
-        <v>11</v>
-      </c>
-      <c r="C264" t="s">
-        <v>14</v>
-      </c>
-      <c r="D264" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" t="s">
-        <v>148</v>
-      </c>
-      <c r="F264" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" t="s">
-        <v>11</v>
-      </c>
-      <c r="C265" t="s">
-        <v>14</v>
-      </c>
-      <c r="D265" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" t="s">
-        <v>148</v>
-      </c>
-      <c r="F265" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>7</v>
-      </c>
-      <c r="B266" t="s">
-        <v>11</v>
-      </c>
-      <c r="C266" t="s">
-        <v>14</v>
-      </c>
-      <c r="D266" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" t="s">
-        <v>148</v>
-      </c>
-      <c r="F266" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267" t="s">
-        <v>11</v>
-      </c>
-      <c r="C267" t="s">
-        <v>13</v>
-      </c>
-      <c r="D267" t="s">
-        <v>16</v>
-      </c>
-      <c r="E267" t="s">
-        <v>149</v>
-      </c>
-      <c r="F267" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>6</v>
-      </c>
-      <c r="B268" t="s">
-        <v>11</v>
-      </c>
-      <c r="C268" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" t="s">
-        <v>150</v>
-      </c>
-      <c r="F268" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>6</v>
-      </c>
-      <c r="B269" t="s">
-        <v>11</v>
-      </c>
-      <c r="C269" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" t="s">
-        <v>15</v>
-      </c>
-      <c r="E269" t="s">
-        <v>151</v>
-      </c>
-      <c r="F269" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>6</v>
-      </c>
-      <c r="B270" t="s">
-        <v>11</v>
-      </c>
-      <c r="C270" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" t="s">
-        <v>152</v>
-      </c>
-      <c r="F270" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" t="s">
-        <v>11</v>
-      </c>
-      <c r="C271" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" t="s">
-        <v>153</v>
-      </c>
-      <c r="F271" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>6</v>
-      </c>
-      <c r="B272" t="s">
-        <v>11</v>
-      </c>
-      <c r="C272" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" t="s">
-        <v>154</v>
-      </c>
-      <c r="F272" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" t="s">
-        <v>11</v>
-      </c>
-      <c r="C273" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" t="s">
-        <v>15</v>
-      </c>
-      <c r="E273" t="s">
-        <v>155</v>
-      </c>
-      <c r="F273" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>6</v>
-      </c>
-      <c r="B274" t="s">
-        <v>11</v>
-      </c>
-      <c r="C274" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" t="s">
-        <v>156</v>
-      </c>
-      <c r="F274" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" t="s">
-        <v>11</v>
-      </c>
-      <c r="C275" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" t="s">
-        <v>157</v>
-      </c>
-      <c r="F275" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>6</v>
-      </c>
-      <c r="B276" t="s">
-        <v>11</v>
-      </c>
-      <c r="C276" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" t="s">
-        <v>15</v>
-      </c>
-      <c r="E276" t="s">
-        <v>158</v>
-      </c>
-      <c r="F276" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>10</v>
-      </c>
-      <c r="B277" t="s">
-        <v>11</v>
-      </c>
-      <c r="C277" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" t="s">
-        <v>159</v>
-      </c>
-      <c r="F277" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278" t="s">
-        <v>11</v>
-      </c>
-      <c r="C278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" t="s">
-        <v>159</v>
-      </c>
-      <c r="F278" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>6</v>
-      </c>
-      <c r="B279" t="s">
-        <v>11</v>
-      </c>
-      <c r="C279" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" t="s">
-        <v>160</v>
-      </c>
-      <c r="F279" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>8</v>
-      </c>
-      <c r="B280" t="s">
-        <v>11</v>
-      </c>
-      <c r="C280" t="s">
-        <v>13</v>
-      </c>
-      <c r="D280" t="s">
-        <v>16</v>
-      </c>
-      <c r="E280" t="s">
-        <v>161</v>
-      </c>
-      <c r="F280" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>6</v>
-      </c>
-      <c r="B281" t="s">
-        <v>11</v>
-      </c>
-      <c r="C281" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" t="s">
-        <v>162</v>
-      </c>
-      <c r="F281" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>8</v>
-      </c>
-      <c r="B282" t="s">
-        <v>11</v>
-      </c>
-      <c r="C282" t="s">
-        <v>13</v>
-      </c>
-      <c r="D282" t="s">
-        <v>16</v>
-      </c>
-      <c r="E282" t="s">
-        <v>163</v>
-      </c>
-      <c r="F282" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>8</v>
-      </c>
-      <c r="B283" t="s">
-        <v>11</v>
-      </c>
-      <c r="C283" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" t="s">
-        <v>16</v>
-      </c>
-      <c r="E283" t="s">
-        <v>164</v>
-      </c>
-      <c r="F283" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>8</v>
-      </c>
-      <c r="B284" t="s">
-        <v>11</v>
-      </c>
-      <c r="C284" t="s">
-        <v>13</v>
-      </c>
-      <c r="D284" t="s">
-        <v>16</v>
-      </c>
-      <c r="E284" t="s">
-        <v>165</v>
-      </c>
-      <c r="F284" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>8</v>
-      </c>
-      <c r="B285" t="s">
-        <v>11</v>
-      </c>
-      <c r="C285" t="s">
-        <v>13</v>
-      </c>
-      <c r="D285" t="s">
-        <v>16</v>
-      </c>
-      <c r="E285" t="s">
-        <v>166</v>
-      </c>
-      <c r="F285" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>8</v>
-      </c>
-      <c r="B286" t="s">
-        <v>11</v>
-      </c>
-      <c r="C286" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286" t="s">
-        <v>16</v>
-      </c>
-      <c r="E286" t="s">
-        <v>167</v>
-      </c>
-      <c r="F286" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>8</v>
-      </c>
-      <c r="B287" t="s">
-        <v>11</v>
-      </c>
-      <c r="C287" t="s">
-        <v>13</v>
-      </c>
-      <c r="D287" t="s">
-        <v>16</v>
-      </c>
-      <c r="E287" t="s">
-        <v>168</v>
-      </c>
-      <c r="F287" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>8</v>
-      </c>
-      <c r="B288" t="s">
-        <v>11</v>
-      </c>
-      <c r="C288" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288" t="s">
-        <v>16</v>
-      </c>
-      <c r="E288" t="s">
-        <v>169</v>
-      </c>
-      <c r="F288" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>6</v>
-      </c>
-      <c r="B289" t="s">
-        <v>11</v>
-      </c>
-      <c r="C289" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" t="s">
-        <v>15</v>
-      </c>
-      <c r="E289" t="s">
-        <v>170</v>
-      </c>
-      <c r="F289" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>7</v>
-      </c>
-      <c r="B290" t="s">
-        <v>11</v>
-      </c>
-      <c r="C290" t="s">
-        <v>13</v>
-      </c>
-      <c r="D290" t="s">
-        <v>16</v>
-      </c>
-      <c r="E290" t="s">
-        <v>168</v>
-      </c>
-      <c r="F290" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>7</v>
-      </c>
-      <c r="B291" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" t="s">
-        <v>13</v>
-      </c>
-      <c r="D291" t="s">
-        <v>16</v>
-      </c>
-      <c r="E291" t="s">
-        <v>167</v>
-      </c>
-      <c r="F291" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>7</v>
-      </c>
-      <c r="B292" t="s">
-        <v>11</v>
-      </c>
-      <c r="C292" t="s">
-        <v>13</v>
-      </c>
-      <c r="D292" t="s">
-        <v>16</v>
-      </c>
-      <c r="E292" t="s">
-        <v>166</v>
-      </c>
-      <c r="F292" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>7</v>
-      </c>
-      <c r="B293" t="s">
-        <v>11</v>
-      </c>
-      <c r="C293" t="s">
-        <v>13</v>
-      </c>
-      <c r="D293" t="s">
-        <v>16</v>
-      </c>
-      <c r="E293" t="s">
-        <v>165</v>
-      </c>
-      <c r="F293" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>7</v>
-      </c>
-      <c r="B294" t="s">
-        <v>11</v>
-      </c>
-      <c r="C294" t="s">
-        <v>13</v>
-      </c>
-      <c r="D294" t="s">
-        <v>16</v>
-      </c>
-      <c r="E294" t="s">
-        <v>164</v>
-      </c>
-      <c r="F294" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>7</v>
-      </c>
-      <c r="B295" t="s">
-        <v>11</v>
-      </c>
-      <c r="C295" t="s">
-        <v>13</v>
-      </c>
-      <c r="D295" t="s">
-        <v>16</v>
-      </c>
-      <c r="E295" t="s">
-        <v>171</v>
-      </c>
-      <c r="F295" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>8</v>
-      </c>
-      <c r="B296" t="s">
-        <v>11</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" t="s">
-        <v>159</v>
-      </c>
-      <c r="F296" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>7</v>
-      </c>
-      <c r="B297" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" t="s">
-        <v>13</v>
-      </c>
-      <c r="D297" t="s">
-        <v>16</v>
-      </c>
-      <c r="E297" t="s">
-        <v>163</v>
-      </c>
-      <c r="F297" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>7</v>
-      </c>
-      <c r="B298" t="s">
-        <v>11</v>
-      </c>
-      <c r="C298" t="s">
-        <v>13</v>
-      </c>
-      <c r="D298" t="s">
-        <v>16</v>
-      </c>
-      <c r="E298" t="s">
-        <v>161</v>
-      </c>
-      <c r="F298" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>7</v>
-      </c>
-      <c r="B299" t="s">
-        <v>11</v>
-      </c>
-      <c r="C299" t="s">
-        <v>13</v>
-      </c>
-      <c r="D299" t="s">
-        <v>16</v>
-      </c>
-      <c r="E299" t="s">
-        <v>172</v>
-      </c>
-      <c r="F299" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>7</v>
-      </c>
-      <c r="B300" t="s">
-        <v>11</v>
-      </c>
-      <c r="C300" t="s">
-        <v>13</v>
-      </c>
-      <c r="D300" t="s">
-        <v>16</v>
-      </c>
-      <c r="E300" t="s">
-        <v>173</v>
-      </c>
-      <c r="F300" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>7</v>
-      </c>
-      <c r="B301" t="s">
-        <v>11</v>
-      </c>
-      <c r="C301" t="s">
-        <v>13</v>
-      </c>
-      <c r="D301" t="s">
-        <v>16</v>
-      </c>
-      <c r="E301" t="s">
-        <v>174</v>
-      </c>
-      <c r="F301" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>7</v>
-      </c>
-      <c r="B302" t="s">
-        <v>11</v>
-      </c>
-      <c r="C302" t="s">
-        <v>13</v>
-      </c>
-      <c r="D302" t="s">
-        <v>16</v>
-      </c>
-      <c r="E302" t="s">
-        <v>175</v>
-      </c>
-      <c r="F302" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>7</v>
-      </c>
-      <c r="B303" t="s">
-        <v>11</v>
-      </c>
-      <c r="C303" t="s">
-        <v>13</v>
-      </c>
-      <c r="D303" t="s">
-        <v>16</v>
-      </c>
-      <c r="E303" t="s">
-        <v>176</v>
-      </c>
-      <c r="F303" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>8</v>
-      </c>
-      <c r="B304" t="s">
-        <v>11</v>
-      </c>
-      <c r="C304" t="s">
-        <v>13</v>
-      </c>
-      <c r="D304" t="s">
-        <v>16</v>
-      </c>
-      <c r="E304" t="s">
-        <v>171</v>
-      </c>
-      <c r="F304" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>7</v>
-      </c>
-      <c r="B305" t="s">
-        <v>11</v>
-      </c>
-      <c r="C305" t="s">
-        <v>13</v>
-      </c>
-      <c r="D305" t="s">
-        <v>16</v>
-      </c>
-      <c r="E305" t="s">
-        <v>169</v>
-      </c>
-      <c r="F305" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>8</v>
-      </c>
-      <c r="B306" t="s">
-        <v>11</v>
-      </c>
-      <c r="C306" t="s">
-        <v>13</v>
-      </c>
-      <c r="D306" t="s">
-        <v>16</v>
-      </c>
-      <c r="E306" t="s">
-        <v>173</v>
-      </c>
-      <c r="F306" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>8</v>
-      </c>
-      <c r="B307" t="s">
-        <v>11</v>
-      </c>
-      <c r="C307" t="s">
-        <v>13</v>
-      </c>
-      <c r="D307" t="s">
-        <v>16</v>
-      </c>
-      <c r="E307" t="s">
-        <v>174</v>
-      </c>
-      <c r="F307" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>8</v>
-      </c>
-      <c r="B308" t="s">
-        <v>11</v>
-      </c>
-      <c r="C308" t="s">
-        <v>13</v>
-      </c>
-      <c r="D308" t="s">
-        <v>16</v>
-      </c>
-      <c r="E308" t="s">
-        <v>175</v>
-      </c>
-      <c r="F308" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>8</v>
-      </c>
-      <c r="B309" t="s">
-        <v>11</v>
-      </c>
-      <c r="C309" t="s">
-        <v>13</v>
-      </c>
-      <c r="D309" t="s">
-        <v>16</v>
-      </c>
-      <c r="E309" t="s">
-        <v>176</v>
-      </c>
-      <c r="F309" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>8</v>
-      </c>
-      <c r="B310" t="s">
-        <v>11</v>
-      </c>
-      <c r="C310" t="s">
-        <v>13</v>
-      </c>
-      <c r="D310" t="s">
-        <v>16</v>
-      </c>
-      <c r="E310" t="s">
-        <v>149</v>
-      </c>
-      <c r="F310" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>7</v>
-      </c>
-      <c r="B311" t="s">
-        <v>11</v>
-      </c>
-      <c r="C311" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" t="s">
-        <v>159</v>
-      </c>
-      <c r="F311" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>8</v>
-      </c>
-      <c r="B312" t="s">
-        <v>11</v>
-      </c>
-      <c r="C312" t="s">
-        <v>13</v>
-      </c>
-      <c r="D312" t="s">
-        <v>16</v>
-      </c>
-      <c r="E312" t="s">
-        <v>172</v>
-      </c>
-      <c r="F312" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>8</v>
-      </c>
-      <c r="B313" t="s">
-        <v>11</v>
-      </c>
-      <c r="C313" t="s">
-        <v>14</v>
-      </c>
-      <c r="D313" t="s">
-        <v>17</v>
-      </c>
-      <c r="E313" t="s">
-        <v>177</v>
-      </c>
-      <c r="F313" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>10</v>
-      </c>
-      <c r="B314" t="s">
-        <v>11</v>
-      </c>
-      <c r="C314" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" t="s">
-        <v>178</v>
-      </c>
-      <c r="F314" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>9</v>
-      </c>
-      <c r="B315" t="s">
-        <v>11</v>
-      </c>
-      <c r="C315" t="s">
-        <v>14</v>
-      </c>
-      <c r="D315" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" t="s">
-        <v>178</v>
-      </c>
-      <c r="F315" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>9</v>
-      </c>
-      <c r="B316" t="s">
-        <v>11</v>
-      </c>
-      <c r="C316" t="s">
-        <v>14</v>
-      </c>
-      <c r="D316" t="s">
-        <v>17</v>
-      </c>
-      <c r="E316" t="s">
-        <v>177</v>
-      </c>
-      <c r="F316" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>10</v>
-      </c>
-      <c r="B317" t="s">
-        <v>11</v>
-      </c>
-      <c r="C317" t="s">
-        <v>14</v>
-      </c>
-      <c r="D317" t="s">
-        <v>17</v>
-      </c>
-      <c r="E317" t="s">
-        <v>177</v>
-      </c>
-      <c r="F317" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>7</v>
-      </c>
-      <c r="B318" t="s">
-        <v>11</v>
-      </c>
-      <c r="C318" t="s">
-        <v>14</v>
-      </c>
-      <c r="D318" t="s">
-        <v>17</v>
-      </c>
-      <c r="E318" t="s">
-        <v>178</v>
-      </c>
-      <c r="F318" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" t="s">
-        <v>11</v>
-      </c>
-      <c r="C319" t="s">
-        <v>14</v>
-      </c>
-      <c r="D319" t="s">
-        <v>17</v>
-      </c>
-      <c r="E319" t="s">
-        <v>177</v>
-      </c>
-      <c r="F319" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>8</v>
-      </c>
-      <c r="B320" t="s">
-        <v>11</v>
-      </c>
-      <c r="C320" t="s">
-        <v>14</v>
-      </c>
-      <c r="D320" t="s">
-        <v>17</v>
-      </c>
-      <c r="E320" t="s">
-        <v>178</v>
-      </c>
-      <c r="F320" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>8</v>
-      </c>
-      <c r="B321" t="s">
-        <v>11</v>
-      </c>
-      <c r="C321" t="s">
-        <v>13</v>
-      </c>
-      <c r="D321" t="s">
-        <v>16</v>
-      </c>
-      <c r="E321" t="s">
-        <v>179</v>
-      </c>
-      <c r="F321" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322" t="s">
-        <v>11</v>
-      </c>
-      <c r="C322" t="s">
-        <v>13</v>
-      </c>
-      <c r="D322" t="s">
-        <v>16</v>
-      </c>
-      <c r="E322" t="s">
-        <v>179</v>
-      </c>
-      <c r="F322" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>7</v>
-      </c>
-      <c r="B323" t="s">
-        <v>11</v>
-      </c>
-      <c r="C323" t="s">
-        <v>13</v>
-      </c>
-      <c r="D323" t="s">
-        <v>16</v>
-      </c>
-      <c r="E323" t="s">
-        <v>180</v>
-      </c>
-      <c r="F323" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>8</v>
-      </c>
-      <c r="B324" t="s">
-        <v>11</v>
-      </c>
-      <c r="C324" t="s">
-        <v>13</v>
-      </c>
-      <c r="D324" t="s">
-        <v>16</v>
-      </c>
-      <c r="E324" t="s">
-        <v>180</v>
-      </c>
-      <c r="F324" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>8</v>
-      </c>
-      <c r="B325" t="s">
-        <v>11</v>
-      </c>
-      <c r="C325" t="s">
-        <v>14</v>
-      </c>
-      <c r="D325" t="s">
-        <v>17</v>
-      </c>
-      <c r="E325" t="s">
-        <v>181</v>
-      </c>
-      <c r="F325" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>7</v>
-      </c>
-      <c r="B326" t="s">
-        <v>11</v>
-      </c>
-      <c r="C326" t="s">
-        <v>14</v>
-      </c>
-      <c r="D326" t="s">
-        <v>17</v>
-      </c>
-      <c r="E326" t="s">
-        <v>181</v>
-      </c>
-      <c r="F326" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>10</v>
-      </c>
-      <c r="B327" t="s">
-        <v>11</v>
-      </c>
-      <c r="C327" t="s">
-        <v>14</v>
-      </c>
-      <c r="D327" t="s">
-        <v>17</v>
-      </c>
-      <c r="E327" t="s">
-        <v>181</v>
-      </c>
-      <c r="F327" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>9</v>
-      </c>
-      <c r="B328" t="s">
-        <v>11</v>
-      </c>
-      <c r="C328" t="s">
-        <v>14</v>
-      </c>
-      <c r="D328" t="s">
-        <v>17</v>
-      </c>
-      <c r="E328" t="s">
-        <v>181</v>
-      </c>
-      <c r="F328" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>7</v>
-      </c>
-      <c r="B329" t="s">
-        <v>11</v>
-      </c>
-      <c r="C329" t="s">
-        <v>13</v>
-      </c>
-      <c r="D329" t="s">
-        <v>16</v>
-      </c>
-      <c r="E329" t="s">
-        <v>182</v>
-      </c>
-      <c r="F329" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>7</v>
-      </c>
-      <c r="B330" t="s">
-        <v>11</v>
-      </c>
-      <c r="C330" t="s">
-        <v>14</v>
-      </c>
-      <c r="D330" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" t="s">
-        <v>183</v>
-      </c>
-      <c r="F330" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>7</v>
-      </c>
-      <c r="B331" t="s">
-        <v>11</v>
-      </c>
-      <c r="C331" t="s">
-        <v>14</v>
-      </c>
-      <c r="D331" t="s">
-        <v>17</v>
-      </c>
-      <c r="E331" t="s">
-        <v>184</v>
-      </c>
-      <c r="F331" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>9</v>
-      </c>
-      <c r="B332" t="s">
-        <v>11</v>
-      </c>
-      <c r="C332" t="s">
-        <v>14</v>
-      </c>
-      <c r="D332" t="s">
-        <v>17</v>
-      </c>
-      <c r="E332" t="s">
-        <v>184</v>
-      </c>
-      <c r="F332" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>9</v>
-      </c>
-      <c r="B333" t="s">
-        <v>11</v>
-      </c>
-      <c r="C333" t="s">
-        <v>14</v>
-      </c>
-      <c r="D333" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" t="s">
-        <v>185</v>
-      </c>
-      <c r="F333" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>7</v>
-      </c>
-      <c r="B334" t="s">
-        <v>11</v>
-      </c>
-      <c r="C334" t="s">
-        <v>14</v>
-      </c>
-      <c r="D334" t="s">
-        <v>17</v>
-      </c>
-      <c r="E334" t="s">
-        <v>185</v>
-      </c>
-      <c r="F334" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>8</v>
-      </c>
-      <c r="B335" t="s">
-        <v>11</v>
-      </c>
-      <c r="C335" t="s">
-        <v>14</v>
-      </c>
-      <c r="D335" t="s">
-        <v>17</v>
-      </c>
-      <c r="E335" t="s">
-        <v>183</v>
-      </c>
-      <c r="F335" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>8</v>
-      </c>
-      <c r="B336" t="s">
-        <v>11</v>
-      </c>
-      <c r="C336" t="s">
-        <v>13</v>
-      </c>
-      <c r="D336" t="s">
-        <v>16</v>
-      </c>
-      <c r="E336" t="s">
-        <v>182</v>
-      </c>
-      <c r="F336" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>8</v>
-      </c>
-      <c r="B337" t="s">
-        <v>11</v>
-      </c>
-      <c r="C337" t="s">
-        <v>14</v>
-      </c>
-      <c r="D337" t="s">
-        <v>17</v>
-      </c>
-      <c r="E337" t="s">
-        <v>184</v>
-      </c>
-      <c r="F337" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>8</v>
-      </c>
-      <c r="B338" t="s">
-        <v>11</v>
-      </c>
-      <c r="C338" t="s">
-        <v>14</v>
-      </c>
-      <c r="D338" t="s">
-        <v>17</v>
-      </c>
-      <c r="E338" t="s">
-        <v>185</v>
-      </c>
-      <c r="F338" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>6</v>
-      </c>
-      <c r="B339" t="s">
-        <v>11</v>
-      </c>
-      <c r="C339" t="s">
-        <v>12</v>
-      </c>
-      <c r="D339" t="s">
-        <v>15</v>
-      </c>
-      <c r="E339" t="s">
-        <v>186</v>
-      </c>
-      <c r="F339" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>6</v>
-      </c>
-      <c r="B340" t="s">
-        <v>11</v>
-      </c>
-      <c r="C340" t="s">
-        <v>12</v>
-      </c>
-      <c r="D340" t="s">
-        <v>15</v>
-      </c>
-      <c r="E340" t="s">
-        <v>187</v>
-      </c>
-      <c r="F340" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>6</v>
-      </c>
-      <c r="B341" t="s">
-        <v>11</v>
-      </c>
-      <c r="C341" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" t="s">
-        <v>188</v>
-      </c>
-      <c r="F341" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>6</v>
-      </c>
-      <c r="B342" t="s">
-        <v>11</v>
-      </c>
-      <c r="C342" t="s">
-        <v>12</v>
-      </c>
-      <c r="D342" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" t="s">
-        <v>189</v>
-      </c>
-      <c r="F342" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>10</v>
-      </c>
-      <c r="B343" t="s">
-        <v>11</v>
-      </c>
-      <c r="C343" t="s">
-        <v>14</v>
-      </c>
-      <c r="D343" t="s">
-        <v>17</v>
-      </c>
-      <c r="E343" t="s">
-        <v>183</v>
-      </c>
-      <c r="F343" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>10</v>
-      </c>
-      <c r="B344" t="s">
-        <v>11</v>
-      </c>
-      <c r="C344" t="s">
-        <v>14</v>
-      </c>
-      <c r="D344" t="s">
-        <v>17</v>
-      </c>
-      <c r="E344" t="s">
-        <v>185</v>
-      </c>
-      <c r="F344" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>10</v>
-      </c>
-      <c r="B345" t="s">
-        <v>11</v>
-      </c>
-      <c r="C345" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" t="s">
-        <v>17</v>
-      </c>
-      <c r="E345" t="s">
-        <v>184</v>
-      </c>
-      <c r="F345" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>6</v>
-      </c>
-      <c r="B346" t="s">
-        <v>11</v>
-      </c>
-      <c r="C346" t="s">
-        <v>12</v>
-      </c>
-      <c r="D346" t="s">
-        <v>15</v>
-      </c>
-      <c r="E346" t="s">
-        <v>190</v>
-      </c>
-      <c r="F346" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>6</v>
-      </c>
-      <c r="B347" t="s">
-        <v>11</v>
-      </c>
-      <c r="C347" t="s">
-        <v>12</v>
-      </c>
-      <c r="D347" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" t="s">
-        <v>191</v>
-      </c>
-      <c r="F347" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>6</v>
-      </c>
-      <c r="B348" t="s">
-        <v>11</v>
-      </c>
-      <c r="C348" t="s">
-        <v>12</v>
-      </c>
-      <c r="D348" t="s">
-        <v>15</v>
-      </c>
-      <c r="E348" t="s">
-        <v>192</v>
-      </c>
-      <c r="F348" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>9</v>
-      </c>
-      <c r="B349" t="s">
-        <v>11</v>
-      </c>
-      <c r="C349" t="s">
-        <v>14</v>
-      </c>
-      <c r="D349" t="s">
-        <v>17</v>
-      </c>
-      <c r="E349" t="s">
-        <v>183</v>
-      </c>
-      <c r="F349" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/var_nmap_output_parser.xlsx
+++ b/var_nmap_output_parser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/cyber-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA87F1A-54E3-6C41-9696-865805F20DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E239A-193B-1B4A-9E63-E32F138FD800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -863,10 +863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:F262"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6112,5 +6115,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>